--- a/Benchmark/OEQ_Benchmark/orientation.xlsx
+++ b/Benchmark/OEQ_Benchmark/orientation.xlsx
@@ -25,286 +25,286 @@
     <t>Reference_Answer</t>
   </si>
   <si>
-    <t>orientation_0.png</t>
-  </si>
-  <si>
-    <t>orientation_1.png</t>
-  </si>
-  <si>
-    <t>orientation_2.png</t>
-  </si>
-  <si>
-    <t>orientation_3.png</t>
-  </si>
-  <si>
-    <t>orientation_4.png</t>
-  </si>
-  <si>
-    <t>orientation_5.png</t>
-  </si>
-  <si>
-    <t>orientation_6.png</t>
-  </si>
-  <si>
-    <t>orientation_7.png</t>
-  </si>
-  <si>
-    <t>orientation_8.png</t>
-  </si>
-  <si>
-    <t>orientation_9.png</t>
-  </si>
-  <si>
-    <t>orientation_10.png</t>
-  </si>
-  <si>
-    <t>orientation_11.png</t>
-  </si>
-  <si>
-    <t>orientation_12.png</t>
-  </si>
-  <si>
-    <t>orientation_13.png</t>
-  </si>
-  <si>
-    <t>orientation_14.png</t>
-  </si>
-  <si>
-    <t>orientation_15.png</t>
-  </si>
-  <si>
-    <t>orientation_16.png</t>
-  </si>
-  <si>
-    <t>orientation_17.png</t>
-  </si>
-  <si>
-    <t>orientation_18.png</t>
-  </si>
-  <si>
-    <t>orientation_19.png</t>
-  </si>
-  <si>
-    <t>orientation_20.png</t>
-  </si>
-  <si>
-    <t>orientation_21.png</t>
-  </si>
-  <si>
-    <t>orientation_22.png</t>
-  </si>
-  <si>
-    <t>orientation_23.png</t>
-  </si>
-  <si>
-    <t>orientation_24.png</t>
-  </si>
-  <si>
-    <t>orientation_25.png</t>
-  </si>
-  <si>
-    <t>orientation_26.png</t>
-  </si>
-  <si>
-    <t>orientation_27.png</t>
-  </si>
-  <si>
-    <t>orientation_28.png</t>
-  </si>
-  <si>
-    <t>orientation_29.png</t>
-  </si>
-  <si>
-    <t>orientation_30.png</t>
-  </si>
-  <si>
-    <t>orientation_31.png</t>
-  </si>
-  <si>
-    <t>orientation_32.png</t>
-  </si>
-  <si>
-    <t>orientation_33.png</t>
-  </si>
-  <si>
-    <t>orientation_34.png</t>
-  </si>
-  <si>
-    <t>orientation_35.png</t>
-  </si>
-  <si>
-    <t>orientation_36.png</t>
-  </si>
-  <si>
-    <t>orientation_37.png</t>
-  </si>
-  <si>
-    <t>orientation_38.png</t>
-  </si>
-  <si>
-    <t>orientation_39.png</t>
-  </si>
-  <si>
-    <t>orientation_40.png</t>
-  </si>
-  <si>
-    <t>orientation_41.png</t>
-  </si>
-  <si>
-    <t>orientation_42.png</t>
-  </si>
-  <si>
-    <t>orientation_43.png</t>
-  </si>
-  <si>
-    <t>orientation_44.png</t>
-  </si>
-  <si>
-    <t>orientation_45.png</t>
-  </si>
-  <si>
-    <t>orientation_46.png</t>
-  </si>
-  <si>
-    <t>orientation_47.png</t>
-  </si>
-  <si>
-    <t>orientation_48.png</t>
-  </si>
-  <si>
-    <t>orientation_49.png</t>
-  </si>
-  <si>
-    <t>orientation_50.png</t>
-  </si>
-  <si>
-    <t>orientation_51.png</t>
-  </si>
-  <si>
-    <t>orientation_52.png</t>
-  </si>
-  <si>
-    <t>orientation_53.png</t>
-  </si>
-  <si>
-    <t>orientation_54.png</t>
-  </si>
-  <si>
-    <t>orientation_55.png</t>
-  </si>
-  <si>
-    <t>orientation_56.png</t>
-  </si>
-  <si>
-    <t>orientation_57.png</t>
-  </si>
-  <si>
-    <t>orientation_58.png</t>
-  </si>
-  <si>
-    <t>orientation_59.png</t>
-  </si>
-  <si>
-    <t>orientation_60.png</t>
-  </si>
-  <si>
-    <t>orientation_61.png</t>
-  </si>
-  <si>
-    <t>orientation_62.png</t>
-  </si>
-  <si>
-    <t>orientation_63.png</t>
-  </si>
-  <si>
-    <t>orientation_64.png</t>
-  </si>
-  <si>
-    <t>orientation_65.png</t>
-  </si>
-  <si>
-    <t>orientation_66.png</t>
-  </si>
-  <si>
-    <t>orientation_67.png</t>
-  </si>
-  <si>
-    <t>orientation_68.png</t>
-  </si>
-  <si>
-    <t>orientation_69.png</t>
-  </si>
-  <si>
-    <t>orientation_70.png</t>
-  </si>
-  <si>
-    <t>orientation_71.png</t>
-  </si>
-  <si>
-    <t>orientation_72.png</t>
-  </si>
-  <si>
-    <t>orientation_73.png</t>
-  </si>
-  <si>
-    <t>orientation_74.png</t>
-  </si>
-  <si>
-    <t>orientation_75.png</t>
-  </si>
-  <si>
-    <t>orientation_76.png</t>
-  </si>
-  <si>
-    <t>orientation_77.png</t>
-  </si>
-  <si>
-    <t>orientation_78.png</t>
-  </si>
-  <si>
-    <t>orientation_79.png</t>
-  </si>
-  <si>
-    <t>orientation_80.png</t>
-  </si>
-  <si>
-    <t>orientation_81.png</t>
-  </si>
-  <si>
-    <t>orientation_82.png</t>
-  </si>
-  <si>
-    <t>orientation_83.png</t>
-  </si>
-  <si>
-    <t>orientation_84.png</t>
-  </si>
-  <si>
-    <t>orientation_85.png</t>
-  </si>
-  <si>
-    <t>orientation_86.png</t>
-  </si>
-  <si>
-    <t>orientation_87.png</t>
-  </si>
-  <si>
-    <t>orientation_88.png</t>
-  </si>
-  <si>
-    <t>orientation_89.png</t>
-  </si>
-  <si>
-    <t>orientation_90.png</t>
-  </si>
-  <si>
-    <t>orientation_91.png</t>
-  </si>
-  <si>
-    <t>orientation_92.png</t>
-  </si>
-  <si>
-    <t>orientation_93.png</t>
+    <t>orientation/orientation_0.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_1.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_2.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_3.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_4.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_5.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_6.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_7.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_8.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_9.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_10.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_11.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_12.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_13.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_14.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_15.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_16.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_17.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_18.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_19.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_20.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_21.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_22.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_23.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_24.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_25.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_26.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_27.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_28.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_29.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_30.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_31.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_32.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_33.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_34.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_35.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_36.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_37.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_38.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_39.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_40.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_41.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_42.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_43.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_44.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_45.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_46.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_47.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_48.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_49.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_50.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_51.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_52.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_53.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_54.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_55.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_56.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_57.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_58.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_59.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_60.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_61.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_62.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_63.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_64.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_65.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_66.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_67.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_68.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_69.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_70.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_71.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_72.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_73.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_74.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_75.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_76.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_77.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_78.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_79.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_80.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_81.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_82.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_83.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_84.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_85.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_86.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_87.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_88.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_89.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_90.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_91.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_92.png</t>
+  </si>
+  <si>
+    <t>orientation/orientation_93.png</t>
   </si>
   <si>
     <t>From the camera/viewer's perspective, please choose the direction that is most proximate to the orientation in which the car centered in the front row of the image is facing in the picture. [Away from the camera/viewer, Towards the camera/viewer]</t>

--- a/Benchmark/OEQ_Benchmark/orientation.xlsx
+++ b/Benchmark/OEQ_Benchmark/orientation.xlsx
@@ -25,286 +25,286 @@
     <t>Reference_Answer</t>
   </si>
   <si>
-    <t>orientation/orientation_0.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_1.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_2.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_3.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_4.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_5.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_6.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_7.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_8.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_9.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_10.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_11.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_12.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_13.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_14.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_15.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_16.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_17.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_18.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_19.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_20.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_21.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_22.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_23.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_24.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_25.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_26.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_27.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_28.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_29.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_30.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_31.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_32.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_33.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_34.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_35.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_36.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_37.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_38.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_39.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_40.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_41.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_42.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_43.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_44.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_45.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_46.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_47.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_48.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_49.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_50.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_51.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_52.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_53.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_54.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_55.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_56.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_57.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_58.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_59.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_60.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_61.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_62.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_63.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_64.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_65.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_66.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_67.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_68.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_69.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_70.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_71.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_72.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_73.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_74.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_75.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_76.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_77.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_78.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_79.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_80.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_81.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_82.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_83.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_84.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_85.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_86.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_87.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_88.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_89.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_90.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_91.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_92.png</t>
-  </si>
-  <si>
-    <t>orientation/orientation_93.png</t>
+    <t>orientation_0.png</t>
+  </si>
+  <si>
+    <t>orientation_1.png</t>
+  </si>
+  <si>
+    <t>orientation_2.png</t>
+  </si>
+  <si>
+    <t>orientation_3.png</t>
+  </si>
+  <si>
+    <t>orientation_4.png</t>
+  </si>
+  <si>
+    <t>orientation_5.png</t>
+  </si>
+  <si>
+    <t>orientation_6.png</t>
+  </si>
+  <si>
+    <t>orientation_7.png</t>
+  </si>
+  <si>
+    <t>orientation_8.png</t>
+  </si>
+  <si>
+    <t>orientation_9.png</t>
+  </si>
+  <si>
+    <t>orientation_10.png</t>
+  </si>
+  <si>
+    <t>orientation_11.png</t>
+  </si>
+  <si>
+    <t>orientation_12.png</t>
+  </si>
+  <si>
+    <t>orientation_13.png</t>
+  </si>
+  <si>
+    <t>orientation_14.png</t>
+  </si>
+  <si>
+    <t>orientation_15.png</t>
+  </si>
+  <si>
+    <t>orientation_16.png</t>
+  </si>
+  <si>
+    <t>orientation_17.png</t>
+  </si>
+  <si>
+    <t>orientation_18.png</t>
+  </si>
+  <si>
+    <t>orientation_19.png</t>
+  </si>
+  <si>
+    <t>orientation_20.png</t>
+  </si>
+  <si>
+    <t>orientation_21.png</t>
+  </si>
+  <si>
+    <t>orientation_22.png</t>
+  </si>
+  <si>
+    <t>orientation_23.png</t>
+  </si>
+  <si>
+    <t>orientation_24.png</t>
+  </si>
+  <si>
+    <t>orientation_25.png</t>
+  </si>
+  <si>
+    <t>orientation_26.png</t>
+  </si>
+  <si>
+    <t>orientation_27.png</t>
+  </si>
+  <si>
+    <t>orientation_28.png</t>
+  </si>
+  <si>
+    <t>orientation_29.png</t>
+  </si>
+  <si>
+    <t>orientation_30.png</t>
+  </si>
+  <si>
+    <t>orientation_31.png</t>
+  </si>
+  <si>
+    <t>orientation_32.png</t>
+  </si>
+  <si>
+    <t>orientation_33.png</t>
+  </si>
+  <si>
+    <t>orientation_34.png</t>
+  </si>
+  <si>
+    <t>orientation_35.png</t>
+  </si>
+  <si>
+    <t>orientation_36.png</t>
+  </si>
+  <si>
+    <t>orientation_37.png</t>
+  </si>
+  <si>
+    <t>orientation_38.png</t>
+  </si>
+  <si>
+    <t>orientation_39.png</t>
+  </si>
+  <si>
+    <t>orientation_40.png</t>
+  </si>
+  <si>
+    <t>orientation_41.png</t>
+  </si>
+  <si>
+    <t>orientation_42.png</t>
+  </si>
+  <si>
+    <t>orientation_43.png</t>
+  </si>
+  <si>
+    <t>orientation_44.png</t>
+  </si>
+  <si>
+    <t>orientation_45.png</t>
+  </si>
+  <si>
+    <t>orientation_46.png</t>
+  </si>
+  <si>
+    <t>orientation_47.png</t>
+  </si>
+  <si>
+    <t>orientation_48.png</t>
+  </si>
+  <si>
+    <t>orientation_49.png</t>
+  </si>
+  <si>
+    <t>orientation_50.png</t>
+  </si>
+  <si>
+    <t>orientation_51.png</t>
+  </si>
+  <si>
+    <t>orientation_52.png</t>
+  </si>
+  <si>
+    <t>orientation_53.png</t>
+  </si>
+  <si>
+    <t>orientation_54.png</t>
+  </si>
+  <si>
+    <t>orientation_55.png</t>
+  </si>
+  <si>
+    <t>orientation_56.png</t>
+  </si>
+  <si>
+    <t>orientation_57.png</t>
+  </si>
+  <si>
+    <t>orientation_58.png</t>
+  </si>
+  <si>
+    <t>orientation_59.png</t>
+  </si>
+  <si>
+    <t>orientation_60.png</t>
+  </si>
+  <si>
+    <t>orientation_61.png</t>
+  </si>
+  <si>
+    <t>orientation_62.png</t>
+  </si>
+  <si>
+    <t>orientation_63.png</t>
+  </si>
+  <si>
+    <t>orientation_64.png</t>
+  </si>
+  <si>
+    <t>orientation_65.png</t>
+  </si>
+  <si>
+    <t>orientation_66.png</t>
+  </si>
+  <si>
+    <t>orientation_67.png</t>
+  </si>
+  <si>
+    <t>orientation_68.png</t>
+  </si>
+  <si>
+    <t>orientation_69.png</t>
+  </si>
+  <si>
+    <t>orientation_70.png</t>
+  </si>
+  <si>
+    <t>orientation_71.png</t>
+  </si>
+  <si>
+    <t>orientation_72.png</t>
+  </si>
+  <si>
+    <t>orientation_73.png</t>
+  </si>
+  <si>
+    <t>orientation_74.png</t>
+  </si>
+  <si>
+    <t>orientation_75.png</t>
+  </si>
+  <si>
+    <t>orientation_76.png</t>
+  </si>
+  <si>
+    <t>orientation_77.png</t>
+  </si>
+  <si>
+    <t>orientation_78.png</t>
+  </si>
+  <si>
+    <t>orientation_79.png</t>
+  </si>
+  <si>
+    <t>orientation_80.png</t>
+  </si>
+  <si>
+    <t>orientation_81.png</t>
+  </si>
+  <si>
+    <t>orientation_82.png</t>
+  </si>
+  <si>
+    <t>orientation_83.png</t>
+  </si>
+  <si>
+    <t>orientation_84.png</t>
+  </si>
+  <si>
+    <t>orientation_85.png</t>
+  </si>
+  <si>
+    <t>orientation_86.png</t>
+  </si>
+  <si>
+    <t>orientation_87.png</t>
+  </si>
+  <si>
+    <t>orientation_88.png</t>
+  </si>
+  <si>
+    <t>orientation_89.png</t>
+  </si>
+  <si>
+    <t>orientation_90.png</t>
+  </si>
+  <si>
+    <t>orientation_91.png</t>
+  </si>
+  <si>
+    <t>orientation_92.png</t>
+  </si>
+  <si>
+    <t>orientation_93.png</t>
   </si>
   <si>
     <t>From the camera/viewer's perspective, please choose the direction that is most proximate to the orientation in which the car centered in the front row of the image is facing in the picture. [Away from the camera/viewer, Towards the camera/viewer]</t>
